--- a/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Projekte\OSPSUite\OSPSuite.BMLM\inst\extdata\TemplateProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA31F9-E21D-4F5A-96F6-D90543DA2BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6CBFDE-12B0-4D5D-A885-272BBBCE548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
-    <sheet name="tpDictionary" sheetId="1" r:id="rId2"/>
+    <sheet name="DataGroupID" sheetId="3" r:id="rId2"/>
+    <sheet name="tpDictionary" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -69,9 +70,6 @@
     <t>MOLECULE</t>
   </si>
   <si>
-    <t>Units is coded in column "Measurement unit"</t>
-  </si>
-  <si>
     <t>DataFile</t>
   </si>
   <si>
@@ -123,18 +121,12 @@
     <t>targetColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">type of parameter, used by package </t>
-  </si>
-  <si>
     <t>sourceColumn</t>
   </si>
   <si>
     <t>name of column in source csv</t>
   </si>
   <si>
-    <t>unit of column in source csv, should be unique except of DV where the unit is coded in column</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
@@ -159,9 +151,6 @@
     <t>an R executable expression which is executed on source columns to filter relevant data for study if empty no filter is applied</t>
   </si>
   <si>
-    <t>an R executable expression which is executed on source rows, to the filtered columns the value defined in filterValue is set, use TRUE if you want to set a value to all rows . For duplicated target columns the filter is executed in the order of this sheet.</t>
-  </si>
-  <si>
     <t>RACENAME == 'White'</t>
   </si>
   <si>
@@ -198,16 +187,9 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>Use numeric coding  1=male 2= female
- or characters Male Female (case insensitive)</t>
-  </si>
-  <si>
     <t>individualId</t>
   </si>
   <si>
-    <t>name of column used by package. Mandatory are individualId,groupId,outputPathId,time,dv,dvUnit,lloq,age,weight,height,gender,population. You can add new columns of type covariate or biometrics or you can duplicate columns if a filter is used</t>
-  </si>
-  <si>
     <t>studyId</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>character, output ID</t>
   </si>
   <si>
-    <t>character, dv TI</t>
-  </si>
-  <si>
     <t>character, age BI</t>
   </si>
   <si>
@@ -232,22 +211,121 @@
     <t>character, height BI</t>
   </si>
   <si>
-    <t>character, population BI</t>
-  </si>
-  <si>
     <t>subjectId</t>
   </si>
   <si>
     <t>character, subject ID</t>
   </si>
   <si>
-    <t>character, unique over study</t>
-  </si>
-  <si>
-    <t>Numeric, for values below lloq set dv to lloq/2, if not available set to NA</t>
-  </si>
-  <si>
-    <t>an R executable expression to set  Value for the filtered rows. Execution on source columns</t>
+    <t>path/to/data/myData.csv</t>
+  </si>
+  <si>
+    <t>tpDictionary</t>
+  </si>
+  <si>
+    <t>PKFLAG &gt; 0</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name used in report </t>
+  </si>
+  <si>
+    <t>used for substructure of electronic package</t>
+  </si>
+  <si>
+    <t>dataSection</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>type of data</t>
+  </si>
+  <si>
+    <t>Individual time profiles</t>
+  </si>
+  <si>
+    <t>study number of data</t>
+  </si>
+  <si>
+    <t>study 1234, 25mg PO SD - fasted</t>
+  </si>
+  <si>
+    <t>25gmg_fasted</t>
+  </si>
+  <si>
+    <t>groupID used in data set, typcially a study arm</t>
+  </si>
+  <si>
+    <t>Model building &amp; evaluation</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>meta data used for electronic package data</t>
+  </si>
+  <si>
+    <t>ORAL</t>
+  </si>
+  <si>
+    <t>n_belowLLOQ</t>
+  </si>
+  <si>
+    <t>character, PK Sim population name</t>
+  </si>
+  <si>
+    <t>Units is coded in column "dvUnit"</t>
+  </si>
+  <si>
+    <t>character, dv Unit must be valid PK-Sim unit</t>
+  </si>
+  <si>
+    <t>character, unique over study, typically study arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use characters Male Female (case insensitive) or numeric coding  1=male 2= female </t>
+  </si>
+  <si>
+    <t>covariate</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>yErrorValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yErrorType </t>
+  </si>
+  <si>
+    <t>check also vignette data_import_by_dictionary</t>
+  </si>
+  <si>
+    <t>internal colum</t>
+  </si>
+  <si>
+    <t>an R executable expression which is executed on source rows</t>
+  </si>
+  <si>
+    <t>an R executable expression to set  Value for the filtered rows</t>
+  </si>
+  <si>
+    <t>ignored by individual data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ignored by aggregated data.numeric, for values below lloq set dv to lloq/2, if not available set to NA</t>
+  </si>
+  <si>
+    <t>aggregated time profiles</t>
   </si>
 </sst>
 </file>
@@ -759,7 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -784,6 +862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -845,9 +926,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,7 +966,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -991,7 +1072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,7 +1214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1141,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E12A07-0C5F-426A-8C51-741C91653C51}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,26 +1235,139 @@
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{888011B5-2D63-4D90-91E2-D21922A0C0A9}">
+      <formula1>"Individual time profiles,aggregated time profiles"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D86DF9-7F77-476C-BD13-1D49A11F29C5}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1181,12 +1375,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,108 +1394,106 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1310,18 +1502,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1332,7 +1524,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1341,139 +1533,180 @@
         <v>4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="F18" s="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6CBFDE-12B0-4D5D-A885-272BBBCE548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3333594D-A879-42A5-8F7D-53308379E3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="195" windowWidth="23985" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
@@ -79,21 +79,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>outputPathId</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>dv</t>
-  </si>
-  <si>
-    <t>dvUnit</t>
-  </si>
-  <si>
     <t>lloq</t>
   </si>
   <si>
@@ -187,12 +172,6 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>individualId</t>
-  </si>
-  <si>
-    <t>studyId</t>
-  </si>
-  <si>
     <t>STUD</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>character, height BI</t>
   </si>
   <si>
-    <t>subjectId</t>
-  </si>
-  <si>
     <t>character, subject ID</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>used for substructure of electronic package</t>
   </si>
   <si>
-    <t>dataSection</t>
-  </si>
-  <si>
     <t>DataType</t>
   </si>
   <si>
@@ -256,27 +229,15 @@
     <t>25gmg_fasted</t>
   </si>
   <si>
-    <t>groupID used in data set, typcially a study arm</t>
-  </si>
-  <si>
     <t>Model building &amp; evaluation</t>
   </si>
   <si>
-    <t>dose</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
     <t>meta data used for electronic package data</t>
   </si>
   <si>
     <t>ORAL</t>
   </si>
   <si>
-    <t>n_belowLLOQ</t>
-  </si>
-  <si>
     <t>character, PK Sim population name</t>
   </si>
   <si>
@@ -326,6 +287,45 @@
   </si>
   <si>
     <t>aggregated time profiles</t>
+  </si>
+  <si>
+    <t>IndividualId</t>
+  </si>
+  <si>
+    <t>OutputPathId</t>
+  </si>
+  <si>
+    <t>StudyId</t>
+  </si>
+  <si>
+    <t>SubjectId</t>
+  </si>
+  <si>
+    <t>xValues</t>
+  </si>
+  <si>
+    <t>yValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yUnit </t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>nBelowLLOQ</t>
+  </si>
+  <si>
+    <t>group used in data set, typcially a study arm</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>DataSection</t>
   </si>
 </sst>
 </file>
@@ -1243,43 +1243,43 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,42 +1312,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,19 +1355,19 @@
         <v>1234</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,74 +1394,74 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1470,30 +1470,30 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1502,18 +1502,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1533,178 +1533,178 @@
         <v>4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1"/>
     </row>

--- a/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3333594D-A879-42A5-8F7D-53308379E3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B131F28-43C5-4C65-A67A-64A2AF9C62CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="195" windowWidth="23985" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
-    <sheet name="DataGroupID" sheetId="3" r:id="rId2"/>
-    <sheet name="tpDictionary" sheetId="1" r:id="rId3"/>
+    <sheet name="tpDictionary" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>type</t>
   </si>
@@ -202,42 +201,6 @@
     <t>PKFLAG &gt; 0</t>
   </si>
   <si>
-    <t>displayName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name used in report </t>
-  </si>
-  <si>
-    <t>used for substructure of electronic package</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>type of data</t>
-  </si>
-  <si>
-    <t>Individual time profiles</t>
-  </si>
-  <si>
-    <t>study number of data</t>
-  </si>
-  <si>
-    <t>study 1234, 25mg PO SD - fasted</t>
-  </si>
-  <si>
-    <t>25gmg_fasted</t>
-  </si>
-  <si>
-    <t>Model building &amp; evaluation</t>
-  </si>
-  <si>
-    <t>meta data used for electronic package data</t>
-  </si>
-  <si>
-    <t>ORAL</t>
-  </si>
-  <si>
     <t>character, PK Sim population name</t>
   </si>
   <si>
@@ -280,15 +243,6 @@
     <t>an R executable expression to set  Value for the filtered rows</t>
   </si>
   <si>
-    <t>ignored by individual data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ignored by aggregated data.numeric, for values below lloq set dv to lloq/2, if not available set to NA</t>
-  </si>
-  <si>
-    <t>aggregated time profiles</t>
-  </si>
-  <si>
     <t>IndividualId</t>
   </si>
   <si>
@@ -316,16 +270,13 @@
     <t>nBelowLLOQ</t>
   </si>
   <si>
-    <t>group used in data set, typcially a study arm</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>DataSection</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>for individual data, set all rows to NA</t>
+  </si>
+  <si>
+    <t>for values below lloq set dv to lloq/2, if not available set to NA</t>
   </si>
 </sst>
 </file>
@@ -837,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -862,9 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1222,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E12A07-0C5F-426A-8C51-741C91653C51}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1183,7 @@
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1245,11 +1193,8 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -1259,11 +1204,8 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1273,114 +1215,18 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{888011B5-2D63-4D90-91E2-D21922A0C0A9}">
-      <formula1>"Individual time profiles,aggregated time profiles"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D86DF9-7F77-476C-BD13-1D49A11F29C5}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1234</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1263,7 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -1425,18 +1271,18 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1450,7 +1296,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1461,7 +1307,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1478,7 +1324,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1488,12 +1334,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1507,7 +1353,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1524,7 +1370,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1533,12 +1379,12 @@
         <v>4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1547,10 +1393,10 @@
         <v>39</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1561,40 +1407,58 @@
         <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,7 +1523,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,7 +1540,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,18 +1557,18 @@
         <v>36</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1"/>
     </row>

--- a/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Data/dataImportConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B131F28-43C5-4C65-A67A-64A2AF9C62CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27648AE-FDDE-4033-A317-325EB8AA5388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -135,18 +135,6 @@
     <t>an R executable expression which is executed on source columns to filter relevant data for study if empty no filter is applied</t>
   </si>
   <si>
-    <t>RACENAME == 'White'</t>
-  </si>
-  <si>
-    <t>European_ICRP_2002'</t>
-  </si>
-  <si>
-    <t>RACENAME == 'Asian'</t>
-  </si>
-  <si>
-    <t>Asian_Tanaka_1996'</t>
-  </si>
-  <si>
     <t>GRPNAME</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t xml:space="preserve">yErrorType </t>
   </si>
   <si>
-    <t>check also vignette data_import_by_dictionary</t>
-  </si>
-  <si>
     <t>internal colum</t>
   </si>
   <si>
@@ -277,13 +262,58 @@
   </si>
   <si>
     <t>for values below lloq set dv to lloq/2, if not available set to NA</t>
+  </si>
+  <si>
+    <t>example for covariate, please delete if not used</t>
+  </si>
+  <si>
+    <t>RACENAME == "White"</t>
+  </si>
+  <si>
+    <t>RACENAME == "Asian"</t>
+  </si>
+  <si>
+    <t>"European_ICRP_2002"</t>
+  </si>
+  <si>
+    <t>"Asian_Tanaka_1996"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check also vignette data_import_by_dictionary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use double quotes " and not single quotes ' for strings</t>
+    </r>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>meta data used for PK-Sim import, if not available, delete row or set all values to NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +462,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,13 +1246,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1302,7 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -1271,43 +1310,43 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1324,22 +1363,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1348,18 +1387,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1370,7 +1409,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1379,21 +1418,21 @@
         <v>4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,15 +1443,15 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1421,15 +1460,15 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1438,15 +1477,15 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1455,10 +1494,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1520,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1534,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,31 +1590,68 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1"/>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{DE171994-DE18-49A0-B15B-9D3DD2A0A525}">
-      <formula1>"identifier,timeprofile,biometrics,covariate"</formula1>
+      <formula1>"identifier,timeprofile,biometrics,covariate,metadata"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
